--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A999EE3B-FF3C-4E82-A046-73F8C16F87CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACACEE8-5451-4756-9BCB-D963449A466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="30360" yWindow="2460" windowWidth="16200" windowHeight="9345" activeTab="1" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Node ID</t>
   </si>
@@ -126,12 +126,6 @@
     <t>Area, A (m^2)</t>
   </si>
   <si>
-    <t xml:space="preserve">Moment of Inertian in Local Y, Iy (m^4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moment of Inertian in Local Z, Iz (m^4) </t>
-  </si>
-  <si>
     <t>Fx</t>
   </si>
   <si>
@@ -145,6 +139,18 @@
   </si>
   <si>
     <t xml:space="preserve">Node ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moment of Inertia in Local Z, Iz (m^4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moment of Inertia in Local Y, Iy (m^4) </t>
+  </si>
+  <si>
+    <t>Cracked Moment of Inertia (m^4)</t>
+  </si>
+  <si>
+    <t>Cracking Moment (kN-m)</t>
   </si>
 </sst>
 </file>
@@ -600,7 +606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -697,7 +703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31138835-7400-4358-88E1-2D9D6D88288C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -862,10 +868,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDD292-B116-45BF-A498-8DFDE4EC10A0}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,9 +880,11 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -887,10 +895,16 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -913,19 +927,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACACEE8-5451-4756-9BCB-D963449A466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0175F78-1FCC-4A4C-8EB3-2B0955F02D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="2460" windowWidth="16200" windowHeight="9345" activeTab="1" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" firstSheet="3" activeTab="6" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>Node ID</t>
   </si>
@@ -126,6 +126,12 @@
     <t>Area, A (m^2)</t>
   </si>
   <si>
+    <t xml:space="preserve">Moment of Inertian in Local Y, Iy (m^4) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moment of Inertian in Local Z, Iz (m^4) </t>
+  </si>
+  <si>
     <t>Fx</t>
   </si>
   <si>
@@ -138,19 +144,19 @@
     <t>Load ID</t>
   </si>
   <si>
+    <t>Mesh Count in X direction</t>
+  </si>
+  <si>
+    <t>Mesh Count in Y direction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Node ID </t>
   </si>
   <si>
-    <t xml:space="preserve">Moment of Inertia in Local Z, Iz (m^4) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moment of Inertia in Local Y, Iy (m^4) </t>
-  </si>
-  <si>
-    <t>Cracked Moment of Inertia (m^4)</t>
-  </si>
-  <si>
-    <t>Cracking Moment (kN-m)</t>
+    <t>Icr</t>
+  </si>
+  <si>
+    <t>Mcr</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB60D2-9CEA-4AF6-BBFE-14189615886A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -574,13 +580,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -588,12 +594,222 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.65</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.95</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1.25</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1.4</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1.55</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.7</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>1.85</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>2.15</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2.5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
     </row>
@@ -604,10 +820,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -673,13 +889,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -691,7 +907,449 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -701,10 +1359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31138835-7400-4358-88E1-2D9D6D88288C}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,34 +1404,14 @@
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>0.6</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -783,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06747EAA-2B3E-4129-BECE-62A3CA8D8DBC}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -819,6 +1457,366 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>13</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -829,7 +1827,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>200000</v>
+        <v>29048889.823881391</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -868,10 +1866,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDD292-B116-45BF-A498-8DFDE4EC10A0}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -880,8 +1878,7 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -895,29 +1892,53 @@
         <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.04</v>
+      </c>
+      <c r="C2">
+        <v>1.3333333333333337E-4</v>
+      </c>
+      <c r="D2">
+        <v>1.3333333333333337E-4</v>
+      </c>
+      <c r="E2">
+        <v>1.3333333333333337E-4</v>
+      </c>
+      <c r="F2">
+        <v>4.7688173852848175E-5</v>
+      </c>
+      <c r="G2">
+        <v>5.1093082810798487</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AED2E2A-F152-4D08-9EBD-35E68852C800}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,19 +1948,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -951,7 +1972,216 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-8.1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>-8.1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-8.1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>-8.1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>-8.1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>-8.1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>-8.1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>-8.1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A999EE3B-FF3C-4E82-A046-73F8C16F87CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BA8BBB-F17C-4EEE-8F07-173C8285206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Materials" sheetId="5" r:id="rId5"/>
     <sheet name="Sections" sheetId="6" r:id="rId6"/>
     <sheet name="Nodal Load" sheetId="7" r:id="rId7"/>
+    <sheet name="Arc Length Parameters" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Node ID</t>
   </si>
@@ -144,7 +145,31 @@
     <t>Load ID</t>
   </si>
   <si>
+    <t>Mesh Count in X direction</t>
+  </si>
+  <si>
+    <t>Mesh Count in Y direction</t>
+  </si>
+  <si>
     <t xml:space="preserve">Node ID </t>
+  </si>
+  <si>
+    <t>Phi</t>
+  </si>
+  <si>
+    <t>Tolerance</t>
+  </si>
+  <si>
+    <t>Maximum Iteration Number</t>
+  </si>
+  <si>
+    <t>Number of Increment</t>
+  </si>
+  <si>
+    <t>Arc Length</t>
+  </si>
+  <si>
+    <t>Strain Type</t>
   </si>
 </sst>
 </file>
@@ -190,11 +215,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB60D2-9CEA-4AF6-BBFE-14189615886A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -568,13 +598,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,12 +612,40 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>0</v>
       </c>
     </row>
@@ -598,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,24 +725,128 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>1</v>
       </c>
     </row>
@@ -695,10 +857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31138835-7400-4358-88E1-2D9D6D88288C}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,34 +902,14 @@
       <c r="H1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>0.6</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -777,10 +919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06747EAA-2B3E-4129-BECE-62A3CA8D8DBC}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +955,106 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -823,7 +1065,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,10 +1091,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -862,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDD292-B116-45BF-A498-8DFDE4EC10A0}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,6 +1135,23 @@
         <v>29</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -900,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AED2E2A-F152-4D08-9EBD-35E68852C800}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +1175,7 @@
         <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -935,6 +1194,96 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F2443A-431B-4692-8FE1-7CACE58C740C}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>10^(-7)</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0175F78-1FCC-4A4C-8EB3-2B0955F02D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D904C-E42F-497D-91EB-C0937270964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="12735" firstSheet="3" activeTab="6" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Materials" sheetId="5" r:id="rId5"/>
     <sheet name="Sections" sheetId="6" r:id="rId6"/>
     <sheet name="Nodal Load" sheetId="7" r:id="rId7"/>
+    <sheet name="curve1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Node ID</t>
   </si>
@@ -157,6 +158,18 @@
   </si>
   <si>
     <t>Mcr</t>
+  </si>
+  <si>
+    <t>curve1</t>
+  </si>
+  <si>
+    <t>Curvature</t>
+  </si>
+  <si>
+    <t>Moment</t>
+  </si>
+  <si>
+    <t>Moment Curvature Curve Sheet Name</t>
   </si>
 </sst>
 </file>
@@ -521,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB60D2-9CEA-4AF6-BBFE-14189615886A}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,7 +607,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -608,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -622,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -636,7 +649,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -650,7 +663,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -664,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1.1000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -678,7 +691,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.25</v>
+        <v>0.9</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -692,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -706,7 +719,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1.55</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -720,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -734,7 +747,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1.85</v>
+        <v>1.3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -748,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -762,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -776,7 +789,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -790,7 +803,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -804,12 +817,40 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1.9</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>0</v>
       </c>
     </row>
@@ -820,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1337,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1349,6 +1390,58 @@
         <v>1</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
     </row>
@@ -1421,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06747EAA-2B3E-4129-BECE-62A3CA8D8DBC}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,6 +1907,46 @@
         <v>1</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
         <v>1</v>
       </c>
     </row>
@@ -1866,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDD292-B116-45BF-A498-8DFDE4EC10A0}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1879,9 +2012,10 @@
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1903,8 +2037,11 @@
       <c r="G1" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1925,6 +2062,9 @@
       </c>
       <c r="G2">
         <v>5.1093082810798487</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1935,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AED2E2A-F152-4D08-9EBD-35E68852C800}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1977,13 +2117,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-8.1</v>
+        <v>-20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2003,13 +2143,14 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-8.1</v>
+        <f>D2</f>
+        <v>-20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2029,13 +2170,14 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>-8.1</v>
+        <f t="shared" ref="D4:D20" si="0">D3</f>
+        <v>-20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2055,13 +2197,14 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-8.1</v>
+        <f t="shared" si="0"/>
+        <v>-20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2081,13 +2224,14 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>-8.1</v>
+        <f t="shared" si="0"/>
+        <v>-20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -2107,13 +2251,14 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>-8.1</v>
+        <f t="shared" si="0"/>
+        <v>-20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -2133,13 +2278,14 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>-8.1</v>
+        <f t="shared" si="0"/>
+        <v>-20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -2159,24 +2305,322 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>17</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>-8.1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>0</v>
       </c>
     </row>
@@ -2184,4 +2628,391 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DBB734D-9B9B-45BE-B255-6125F955742A}">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-0.39660499999999999</v>
+      </c>
+      <c r="B2">
+        <v>-4.17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>-0.32197399999999998</v>
+      </c>
+      <c r="B3">
+        <v>-4.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-0.228134</v>
+      </c>
+      <c r="B4">
+        <v>-5.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>-0.20505499999999999</v>
+      </c>
+      <c r="B5">
+        <v>-5.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-0.181115</v>
+      </c>
+      <c r="B6">
+        <v>-5.34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-0.15625500000000001</v>
+      </c>
+      <c r="B7">
+        <v>-5.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>-0.12990199999999999</v>
+      </c>
+      <c r="B8">
+        <v>-5.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>-0.12650500000000001</v>
+      </c>
+      <c r="B9">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>-0.12559000000000001</v>
+      </c>
+      <c r="B10">
+        <v>-5.41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>-0.125198</v>
+      </c>
+      <c r="B11">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>-0.12474</v>
+      </c>
+      <c r="B12">
+        <v>-5.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-0.12389</v>
+      </c>
+      <c r="B13">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-0.12304</v>
+      </c>
+      <c r="B14">
+        <v>-5.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-0.116037</v>
+      </c>
+      <c r="B15">
+        <v>-5.38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>-0.10882600000000001</v>
+      </c>
+      <c r="B16">
+        <v>-5.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>-0.10147399999999999</v>
+      </c>
+      <c r="B17">
+        <v>-5.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>-8.5951E-2</v>
+      </c>
+      <c r="B18">
+        <v>-5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>-6.9375000000000006E-2</v>
+      </c>
+      <c r="B19">
+        <v>-5.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>-5.1763000000000003E-2</v>
+      </c>
+      <c r="B20">
+        <v>-4.7300000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>-3.3103E-2</v>
+      </c>
+      <c r="B21">
+        <v>-4.41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>-2.3764E-2</v>
+      </c>
+      <c r="B22">
+        <v>-4.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>-1.4063000000000001E-2</v>
+      </c>
+      <c r="B23">
+        <v>-3.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>-6.7889999999999999E-3</v>
+      </c>
+      <c r="B24">
+        <v>-2.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>6.705E-3</v>
+      </c>
+      <c r="B26">
+        <v>9.11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1.3016E-2</v>
+      </c>
+      <c r="B27">
+        <v>17.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1.4540000000000001E-2</v>
+      </c>
+      <c r="B28">
+        <v>19.260000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1.6641E-2</v>
+      </c>
+      <c r="B29">
+        <v>20.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1.7405E-2</v>
+      </c>
+      <c r="B30">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1.8169000000000001E-2</v>
+      </c>
+      <c r="B31">
+        <v>20.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1.8534999999999999E-2</v>
+      </c>
+      <c r="B32">
+        <v>20.57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1.8932999999999998E-2</v>
+      </c>
+      <c r="B33">
+        <v>20.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1.9299E-2</v>
+      </c>
+      <c r="B34">
+        <v>20.61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1.9696999999999999E-2</v>
+      </c>
+      <c r="B35">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2.2852000000000001E-2</v>
+      </c>
+      <c r="B36">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3.7246000000000001E-2</v>
+      </c>
+      <c r="B37">
+        <v>21.13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>4.4734000000000003E-2</v>
+      </c>
+      <c r="B38">
+        <v>21.22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5.2347999999999999E-2</v>
+      </c>
+      <c r="B39">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5.9759E-2</v>
+      </c>
+      <c r="B40">
+        <v>21.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>6.6999000000000003E-2</v>
+      </c>
+      <c r="B41">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>8.0966999999999997E-2</v>
+      </c>
+      <c r="B42">
+        <v>21.37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9.4085000000000002E-2</v>
+      </c>
+      <c r="B43">
+        <v>21.33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>0.140766</v>
+      </c>
+      <c r="B44">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>0.17944099999999999</v>
+      </c>
+      <c r="B45">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>0.25011699999999998</v>
+      </c>
+      <c r="B46">
+        <v>18.87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RazzR\OneDrive\Belgeler\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BA8BBB-F17C-4EEE-8F07-173C8285206F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86CF452-AD10-4EFF-8F45-8E58279319EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -215,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -225,6 +225,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,6 +244,1546 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.1235735297362142E-2"/>
+          <c:y val="8.3967540315790137E-2"/>
+          <c:w val="0.97305273806628223"/>
+          <c:h val="0.90520568390595235"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Nodal Load'!$L$2:$BJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.0514498864625101E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.122267116978411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.18525224253268599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.24946213070701201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.314887236093502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.381516274492742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.44933641103473299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.51833338142295604</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.58849160455824401</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.65979428220123604</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.73222348766807199</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.80576024522565404</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.88038460158355702</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.95607569065791898</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.0328117925992799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.11057038792417</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.18932820746336</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.2690612787338</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.3497449692521499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.4313540272329399</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.51386262005119</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.5972443707957</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.6814723931937401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.7665193251490301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.85235736110211</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.9389582833937899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.0262934927883598</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.11433403829255</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.20305064638884</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2.2924137497864101</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-2.3823935157806702</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-2.4729598743013099</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-2.5640825457199399</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-2.6557310684811899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.7478748266149502</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-2.8404830771832201</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-2.93352497771125</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.0269696136511102</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3.1207860259242599</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-3.2149432385902998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-3.3094102866900998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-3.4041562443142399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3.49915025295113</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3.5943615501744999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-3.6897594987361302</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-3.7853136161378398</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-3.88099360476633</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-3.9767693826861099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-4.0726111151995399</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-4.16848924729908</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Nodal Load'!$L$3:$BJ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.4764214967892704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.6092752435723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-21.4288058574726</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-27.962049424755701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-34.233649591116901</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-40.2658293816041</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-46.078804499735703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-51.690997129982897</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-57.119241067042303</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-62.3789600966211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-67.484323619725998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-72.448382851837593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-77.283190387623506</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-81.999905477502395</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-86.608886995808007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-91.119775776806804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-95.541567742630207</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-99.882679036906595</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-104.151004201982</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-108.35396829000101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-112.49857367387099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-116.59144221926501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-120.63885339003799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-124.64677878411101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-128.62091353280499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-132.56670494200901</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-136.48937870691901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-140.39396299218899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-144.28531063518801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-148.168119700749</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-152.04695259067299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-155.926253889756</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-159.810367111603</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-163.70355049179599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-167.60999196251501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-171.53382343138401</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-175.47913447775099</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-179.449985571729</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-183.45042091485399</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-187.48448099619301</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-191.55621495384901</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-195.66969282924001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-199.82901780001299</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-204.03833847713301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-208.301861352472</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-212.62386348521699</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-217.008705518607</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-221.46084512306999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-225.98485096779001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-230.585417330372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-728A-4D97-9C31-3D9ADA69000E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Nodal Load'!$M$11:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.80317795276642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Nodal Load'!$M$12:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-230.585417330372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-728A-4D97-9C31-3D9ADA69000E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Nodal Load'!$L$13:$L$63</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.5058984309434898E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.2767715454101604E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>-0.14330554008483901</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>-0.19685834646225001</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>-0.25361680984497098</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>-0.31377401947975198</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>-0.37752240896224998</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>-0.44504997134208701</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>-0.516534864902496</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>-0.59214061498642001</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>-0.67200911045074496</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="General">
+                  <c:v>-0.75625300407409701</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="General">
+                  <c:v>-0.84494900703430198</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="General">
+                  <c:v>-0.93812954425811801</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="General">
+                  <c:v>-1.0357756614685101</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>-1.13781118392944</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="General">
+                  <c:v>-1.24409747123718</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="General">
+                  <c:v>-1.35443198680878</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="General">
+                  <c:v>-1.4685479402542101</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>-1.5861185789108301</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="General">
+                  <c:v>-1.7067630290985101</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="General">
+                  <c:v>-1.8300553560257</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="General">
+                  <c:v>-1.9555364847183201</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>-2.0827171802520801</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>-2.2111248970031698</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="General">
+                  <c:v>-2.3402688503265399</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>-2.4696812629699698</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>-2.5989336967468302</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>-2.7275879383087198</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>-2.85528635978699</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>-2.9816989898681601</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>-3.10653901100159</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>-3.2295622825622599</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>-3.3505654335021999</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>-3.4694161415100102</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>-3.5859351158142099</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>-3.7000465393066402</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>-3.8116519451141402</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>-3.92076516151428</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>-4.0273532867431596</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>-4.1313781738281303</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>-4.2328920364379901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Nodal Load'!$K$13:$K$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-16.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-27.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-38.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-49.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-55</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-60.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-71.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-77</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-82.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-93.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-99</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-104.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-115.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-121</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-126.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-132</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-137.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-148.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-154</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-159.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-165</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-170.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-176</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-181.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-187</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-192.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-203.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-209</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-214.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-220</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-225.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-231</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-728A-4D97-9C31-3D9ADA69000E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1593733727"/>
+        <c:axId val="1593730399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1593733727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593730399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1593730399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593733727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>598312</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>79001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6824CD10-E47E-444F-A0FC-0A73F9008F12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB60D2-9CEA-4AF6-BBFE-14189615886A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,68 +2128,12 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>80</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
         <v>0</v>
       </c>
     </row>
@@ -656,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -743,111 +2231,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
         <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -919,10 +2303,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06747EAA-2B3E-4129-BECE-62A3CA8D8DBC}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +2344,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -972,86 +2356,6 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
         <v>1</v>
       </c>
     </row>
@@ -1065,7 +2369,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>500000</v>
+        <v>100</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1107,7 +2411,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AED2E2A-F152-4D08-9EBD-35E68852C800}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56:L63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,7 +2474,7 @@
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1196,18 +2500,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1221,9 +2525,1299 @@
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>-6.0514498864625101E-2</v>
+      </c>
+      <c r="N2">
+        <v>-0.122267116978411</v>
+      </c>
+      <c r="O2">
+        <v>-0.18525224253268599</v>
+      </c>
+      <c r="P2">
+        <v>-0.24946213070701201</v>
+      </c>
+      <c r="Q2">
+        <v>-0.314887236093502</v>
+      </c>
+      <c r="R2">
+        <v>-0.381516274492742</v>
+      </c>
+      <c r="S2">
+        <v>-0.44933641103473299</v>
+      </c>
+      <c r="T2">
+        <v>-0.51833338142295604</v>
+      </c>
+      <c r="U2">
+        <v>-0.58849160455824401</v>
+      </c>
+      <c r="V2">
+        <v>-0.65979428220123604</v>
+      </c>
+      <c r="W2">
+        <v>-0.73222348766807199</v>
+      </c>
+      <c r="X2">
+        <v>-0.80576024522565404</v>
+      </c>
+      <c r="Y2">
+        <v>-0.88038460158355702</v>
+      </c>
+      <c r="Z2">
+        <v>-0.95607569065791898</v>
+      </c>
+      <c r="AA2">
+        <v>-1.0328117925992799</v>
+      </c>
+      <c r="AB2">
+        <v>-1.11057038792417</v>
+      </c>
+      <c r="AC2">
+        <v>-1.18932820746336</v>
+      </c>
+      <c r="AD2">
+        <v>-1.2690612787338</v>
+      </c>
+      <c r="AE2">
+        <v>-1.3497449692521499</v>
+      </c>
+      <c r="AF2">
+        <v>-1.4313540272329399</v>
+      </c>
+      <c r="AG2">
+        <v>-1.51386262005119</v>
+      </c>
+      <c r="AH2">
+        <v>-1.5972443707957</v>
+      </c>
+      <c r="AI2">
+        <v>-1.6814723931937401</v>
+      </c>
+      <c r="AJ2">
+        <v>-1.7665193251490301</v>
+      </c>
+      <c r="AK2">
+        <v>-1.85235736110211</v>
+      </c>
+      <c r="AL2">
+        <v>-1.9389582833937899</v>
+      </c>
+      <c r="AM2">
+        <v>-2.0262934927883598</v>
+      </c>
+      <c r="AN2">
+        <v>-2.11433403829255</v>
+      </c>
+      <c r="AO2">
+        <v>-2.20305064638884</v>
+      </c>
+      <c r="AP2">
+        <v>-2.2924137497864101</v>
+      </c>
+      <c r="AQ2">
+        <v>-2.3823935157806702</v>
+      </c>
+      <c r="AR2">
+        <v>-2.4729598743013099</v>
+      </c>
+      <c r="AS2">
+        <v>-2.5640825457199399</v>
+      </c>
+      <c r="AT2">
+        <v>-2.6557310684811899</v>
+      </c>
+      <c r="AU2">
+        <v>-2.7478748266149502</v>
+      </c>
+      <c r="AV2">
+        <v>-2.8404830771832201</v>
+      </c>
+      <c r="AW2">
+        <v>-2.93352497771125</v>
+      </c>
+      <c r="AX2">
+        <v>-3.0269696136511102</v>
+      </c>
+      <c r="AY2">
+        <v>-3.1207860259242599</v>
+      </c>
+      <c r="AZ2">
+        <v>-3.2149432385902998</v>
+      </c>
+      <c r="BA2">
+        <v>-3.3094102866900998</v>
+      </c>
+      <c r="BB2">
+        <v>-3.4041562443142399</v>
+      </c>
+      <c r="BC2">
+        <v>-3.49915025295113</v>
+      </c>
+      <c r="BD2">
+        <v>-3.5943615501744999</v>
+      </c>
+      <c r="BE2">
+        <v>-3.6897594987361302</v>
+      </c>
+      <c r="BF2">
+        <v>-3.7853136161378398</v>
+      </c>
+      <c r="BG2">
+        <v>-3.88099360476633</v>
+      </c>
+      <c r="BH2">
+        <v>-3.9767693826861099</v>
+      </c>
+      <c r="BI2">
+        <v>-4.0726111151995399</v>
+      </c>
+      <c r="BJ2">
+        <v>-4.16848924729908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>-7.4764214967892704</v>
+      </c>
+      <c r="N3">
+        <v>-14.6092752435723</v>
+      </c>
+      <c r="O3">
+        <v>-21.4288058574726</v>
+      </c>
+      <c r="P3">
+        <v>-27.962049424755701</v>
+      </c>
+      <c r="Q3">
+        <v>-34.233649591116901</v>
+      </c>
+      <c r="R3">
+        <v>-40.2658293816041</v>
+      </c>
+      <c r="S3">
+        <v>-46.078804499735703</v>
+      </c>
+      <c r="T3">
+        <v>-51.690997129982897</v>
+      </c>
+      <c r="U3">
+        <v>-57.119241067042303</v>
+      </c>
+      <c r="V3">
+        <v>-62.3789600966211</v>
+      </c>
+      <c r="W3">
+        <v>-67.484323619725998</v>
+      </c>
+      <c r="X3">
+        <v>-72.448382851837593</v>
+      </c>
+      <c r="Y3">
+        <v>-77.283190387623506</v>
+      </c>
+      <c r="Z3">
+        <v>-81.999905477502395</v>
+      </c>
+      <c r="AA3">
+        <v>-86.608886995808007</v>
+      </c>
+      <c r="AB3">
+        <v>-91.119775776806804</v>
+      </c>
+      <c r="AC3">
+        <v>-95.541567742630207</v>
+      </c>
+      <c r="AD3">
+        <v>-99.882679036906595</v>
+      </c>
+      <c r="AE3">
+        <v>-104.151004201982</v>
+      </c>
+      <c r="AF3">
+        <v>-108.35396829000101</v>
+      </c>
+      <c r="AG3">
+        <v>-112.49857367387099</v>
+      </c>
+      <c r="AH3">
+        <v>-116.59144221926501</v>
+      </c>
+      <c r="AI3">
+        <v>-120.63885339003799</v>
+      </c>
+      <c r="AJ3">
+        <v>-124.64677878411101</v>
+      </c>
+      <c r="AK3">
+        <v>-128.62091353280499</v>
+      </c>
+      <c r="AL3">
+        <v>-132.56670494200901</v>
+      </c>
+      <c r="AM3">
+        <v>-136.48937870691901</v>
+      </c>
+      <c r="AN3">
+        <v>-140.39396299218899</v>
+      </c>
+      <c r="AO3">
+        <v>-144.28531063518801</v>
+      </c>
+      <c r="AP3">
+        <v>-148.168119700749</v>
+      </c>
+      <c r="AQ3">
+        <v>-152.04695259067299</v>
+      </c>
+      <c r="AR3">
+        <v>-155.926253889756</v>
+      </c>
+      <c r="AS3">
+        <v>-159.810367111603</v>
+      </c>
+      <c r="AT3">
+        <v>-163.70355049179599</v>
+      </c>
+      <c r="AU3">
+        <v>-167.60999196251501</v>
+      </c>
+      <c r="AV3">
+        <v>-171.53382343138401</v>
+      </c>
+      <c r="AW3">
+        <v>-175.47913447775099</v>
+      </c>
+      <c r="AX3">
+        <v>-179.449985571729</v>
+      </c>
+      <c r="AY3">
+        <v>-183.45042091485399</v>
+      </c>
+      <c r="AZ3">
+        <v>-187.48448099619301</v>
+      </c>
+      <c r="BA3">
+        <v>-191.55621495384901</v>
+      </c>
+      <c r="BB3">
+        <v>-195.66969282924001</v>
+      </c>
+      <c r="BC3">
+        <v>-199.82901780001299</v>
+      </c>
+      <c r="BD3">
+        <v>-204.03833847713301</v>
+      </c>
+      <c r="BE3">
+        <v>-208.301861352472</v>
+      </c>
+      <c r="BF3">
+        <v>-212.62386348521699</v>
+      </c>
+      <c r="BG3">
+        <v>-217.008705518607</v>
+      </c>
+      <c r="BH3">
+        <v>-221.46084512306999</v>
+      </c>
+      <c r="BI3">
+        <v>-225.98485096779001</v>
+      </c>
+      <c r="BJ3">
+        <v>-230.585417330372</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>-9.5778561399059298E-2</v>
+      </c>
+      <c r="N5">
+        <v>-0.19152541889980301</v>
+      </c>
+      <c r="O5">
+        <v>-0.28720887956838198</v>
+      </c>
+      <c r="P5">
+        <v>-0.38279730946482998</v>
+      </c>
+      <c r="Q5">
+        <v>-0.47825912806208598</v>
+      </c>
+      <c r="R5">
+        <v>-0.573562844357417</v>
+      </c>
+      <c r="S5">
+        <v>-0.66867707645560304</v>
+      </c>
+      <c r="T5">
+        <v>-0.76357057436699605</v>
+      </c>
+      <c r="U5">
+        <v>-0.85821224319728695</v>
+      </c>
+      <c r="V5">
+        <v>-0.95257116675745601</v>
+      </c>
+      <c r="W5">
+        <v>-1.0466166316238299</v>
+      </c>
+      <c r="X5">
+        <v>-1.14031815168005</v>
+      </c>
+      <c r="Y5">
+        <v>-1.2336454931754499</v>
+      </c>
+      <c r="Z5">
+        <v>-1.3265687003373201</v>
+      </c>
+      <c r="AA5">
+        <v>-1.4190581215787901</v>
+      </c>
+      <c r="AB5">
+        <v>-1.5110844363484099</v>
+      </c>
+      <c r="AC5">
+        <v>-1.6026186826736299</v>
+      </c>
+      <c r="AD5">
+        <v>-1.6936322854566801</v>
+      </c>
+      <c r="AE5">
+        <v>-1.7840970855892999</v>
+      </c>
+      <c r="AF5">
+        <v>-1.87398536996198</v>
+      </c>
+      <c r="AG5">
+        <v>-1.96326990245383</v>
+      </c>
+      <c r="AH5">
+        <v>-2.0519239560014402</v>
+      </c>
+      <c r="AI5">
+        <v>-2.1399213458594599</v>
+      </c>
+      <c r="AJ5">
+        <v>-2.2272364641816398</v>
+      </c>
+      <c r="AK5">
+        <v>-2.3138443160701399</v>
+      </c>
+      <c r="AL5">
+        <v>-2.3997205572626399</v>
+      </c>
+      <c r="AM5">
+        <v>-2.4848415336516299</v>
+      </c>
+      <c r="AN5">
+        <v>-2.5691843228593201</v>
+      </c>
+      <c r="AO5">
+        <v>-2.6527267781248001</v>
+      </c>
+      <c r="AP5">
+        <v>-2.7354475747986302</v>
+      </c>
+      <c r="AQ5">
+        <v>-2.8173262597846902</v>
+      </c>
+      <c r="AR5">
+        <v>-2.8983433043203699</v>
+      </c>
+      <c r="AS5">
+        <v>-2.9784801605465598</v>
+      </c>
+      <c r="AT5">
+        <v>-3.0577193223879502</v>
+      </c>
+      <c r="AU5">
+        <v>-3.1360443913453402</v>
+      </c>
+      <c r="AV5">
+        <v>-3.21344014789628</v>
+      </c>
+      <c r="AW5">
+        <v>-3.28989262931014</v>
+      </c>
+      <c r="AX5">
+        <v>-3.3653892148134599</v>
+      </c>
+      <c r="AY5">
+        <v>-3.4399187191920602</v>
+      </c>
+      <c r="AZ5">
+        <v>-3.5134714960947702</v>
+      </c>
+      <c r="BA5">
+        <v>-3.5860395525120499</v>
+      </c>
+      <c r="BB5">
+        <v>-3.6576166761493401</v>
+      </c>
+      <c r="BC5">
+        <v>-3.7281985777047302</v>
+      </c>
+      <c r="BD5">
+        <v>-3.7977830504032402</v>
+      </c>
+      <c r="BE5">
+        <v>-3.86637014954368</v>
+      </c>
+      <c r="BF5">
+        <v>-3.9339623952909402</v>
+      </c>
+      <c r="BG5">
+        <v>-4.0005650025083899</v>
+      </c>
+      <c r="BH5">
+        <v>-4.0661861293903199</v>
+      </c>
+      <c r="BI5">
+        <v>-4.1308372811912104</v>
+      </c>
+      <c r="BJ5">
+        <v>-4.1945334234096103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>-4.5984186661961797</v>
+      </c>
+      <c r="N6">
+        <v>-9.2016310519960491</v>
+      </c>
+      <c r="O6">
+        <v>-13.8142345775746</v>
+      </c>
+      <c r="P6">
+        <v>-18.441180612419402</v>
+      </c>
+      <c r="Q6">
+        <v>-23.087235789831801</v>
+      </c>
+      <c r="R6">
+        <v>-27.757277415746799</v>
+      </c>
+      <c r="S6">
+        <v>-32.4562503488118</v>
+      </c>
+      <c r="T6">
+        <v>-37.189181383775001</v>
+      </c>
+      <c r="U6">
+        <v>-41.961194119480098</v>
+      </c>
+      <c r="V6">
+        <v>-46.777524403045398</v>
+      </c>
+      <c r="W6">
+        <v>-51.643536447781798</v>
+      </c>
+      <c r="X6">
+        <v>-56.564739729455297</v>
+      </c>
+      <c r="Y6">
+        <v>-61.546806773722302</v>
+      </c>
+      <c r="Z6">
+        <v>-66.595591957103693</v>
+      </c>
+      <c r="AA6">
+        <v>-71.717151454863696</v>
+      </c>
+      <c r="AB6">
+        <v>-76.917764481805406</v>
+      </c>
+      <c r="AC6">
+        <v>-82.203955986502095</v>
+      </c>
+      <c r="AD6">
+        <v>-87.582520976090606</v>
+      </c>
+      <c r="AE6">
+        <v>-93.060550667761603</v>
+      </c>
+      <c r="AF6">
+        <v>-98.645460684821302</v>
+      </c>
+      <c r="AG6">
+        <v>-104.345021540061</v>
+      </c>
+      <c r="AH6">
+        <v>-110.167391677634</v>
+      </c>
+      <c r="AI6">
+        <v>-116.121153377208</v>
+      </c>
+      <c r="AJ6">
+        <v>-122.21535186153</v>
+      </c>
+      <c r="AK6">
+        <v>-128.45953799134099</v>
+      </c>
+      <c r="AL6">
+        <v>-134.86381498083301</v>
+      </c>
+      <c r="AM6">
+        <v>-141.438889623405</v>
+      </c>
+      <c r="AN6">
+        <v>-148.196128582684</v>
+      </c>
+      <c r="AO6">
+        <v>-155.14762037895201</v>
+      </c>
+      <c r="AP6">
+        <v>-162.306243788008</v>
+      </c>
+      <c r="AQ6">
+        <v>-169.68574346999799</v>
+      </c>
+      <c r="AR6">
+        <v>-177.30081376220599</v>
+      </c>
+      <c r="AS6">
+        <v>-185.16719170506801</v>
+      </c>
+      <c r="AT6">
+        <v>-193.30176052780899</v>
+      </c>
+      <c r="AU6">
+        <v>-201.72266500323201</v>
+      </c>
+      <c r="AV6">
+        <v>-210.449440294618</v>
+      </c>
+      <c r="AW6">
+        <v>-219.50315616711501</v>
+      </c>
+      <c r="AX6">
+        <v>-228.90657872756299</v>
+      </c>
+      <c r="AY6">
+        <v>-238.68435219824201</v>
+      </c>
+      <c r="AZ6">
+        <v>-248.863203630307</v>
+      </c>
+      <c r="BA6">
+        <v>-259.47217393236298</v>
+      </c>
+      <c r="BB6">
+        <v>-270.54287914095801</v>
+      </c>
+      <c r="BC6">
+        <v>-282.10980650716499</v>
+      </c>
+      <c r="BD6">
+        <v>-294.21065073343999</v>
+      </c>
+      <c r="BE6">
+        <v>-306.88669658646597</v>
+      </c>
+      <c r="BF6">
+        <v>-320.18325515596598</v>
+      </c>
+      <c r="BG6">
+        <v>-334.15016224963898</v>
+      </c>
+      <c r="BH6">
+        <v>-348.84219368145</v>
+      </c>
+      <c r="BI6">
+        <v>-364.32032137800297</v>
+      </c>
+      <c r="BJ6">
+        <v>-380.65158917300403</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>-9.5778561399059298E-2</v>
+      </c>
+      <c r="N8">
+        <v>-0.19152541889980301</v>
+      </c>
+      <c r="O8">
+        <v>-0.28720887956838198</v>
+      </c>
+      <c r="P8">
+        <v>-0.38279730946482998</v>
+      </c>
+      <c r="Q8">
+        <v>-0.47825912806208598</v>
+      </c>
+      <c r="R8">
+        <v>-0.573562844357417</v>
+      </c>
+      <c r="S8">
+        <v>-0.66867707645560304</v>
+      </c>
+      <c r="T8">
+        <v>-0.76357057436699605</v>
+      </c>
+      <c r="U8">
+        <v>-0.85821224319728695</v>
+      </c>
+      <c r="V8">
+        <v>-0.95257116675745601</v>
+      </c>
+      <c r="W8">
+        <v>-1.0466166316238299</v>
+      </c>
+      <c r="X8">
+        <v>-1.14031815168005</v>
+      </c>
+      <c r="Y8">
+        <v>-1.2336454931754499</v>
+      </c>
+      <c r="Z8">
+        <v>-1.3265687003373201</v>
+      </c>
+      <c r="AA8">
+        <v>-1.4190581215787901</v>
+      </c>
+      <c r="AB8">
+        <v>-1.5110844363484099</v>
+      </c>
+      <c r="AC8">
+        <v>-1.6026186826736299</v>
+      </c>
+      <c r="AD8">
+        <v>-1.6936322854566801</v>
+      </c>
+      <c r="AE8">
+        <v>-1.7840970855892999</v>
+      </c>
+      <c r="AF8">
+        <v>-1.87398536996198</v>
+      </c>
+      <c r="AG8">
+        <v>-1.96326990245383</v>
+      </c>
+      <c r="AH8">
+        <v>-2.0519239560014402</v>
+      </c>
+      <c r="AI8">
+        <v>-2.1399213458594599</v>
+      </c>
+      <c r="AJ8">
+        <v>-2.2272364641816398</v>
+      </c>
+      <c r="AK8">
+        <v>-2.3138443160701399</v>
+      </c>
+      <c r="AL8">
+        <v>-2.3997205572626399</v>
+      </c>
+      <c r="AM8">
+        <v>-2.4848415336516299</v>
+      </c>
+      <c r="AN8">
+        <v>-2.5691843228593201</v>
+      </c>
+      <c r="AO8">
+        <v>-2.6527267781248001</v>
+      </c>
+      <c r="AP8">
+        <v>-2.7354475747986302</v>
+      </c>
+      <c r="AQ8">
+        <v>-2.8173262597846902</v>
+      </c>
+      <c r="AR8">
+        <v>-2.8983433043203699</v>
+      </c>
+      <c r="AS8">
+        <v>-2.9784801605465598</v>
+      </c>
+      <c r="AT8">
+        <v>-3.0577193223879502</v>
+      </c>
+      <c r="AU8">
+        <v>-3.1360443913453402</v>
+      </c>
+      <c r="AV8">
+        <v>-3.21344014789628</v>
+      </c>
+      <c r="AW8">
+        <v>-3.28989262931014</v>
+      </c>
+      <c r="AX8">
+        <v>-3.3653892148134599</v>
+      </c>
+      <c r="AY8">
+        <v>-3.4399187191920602</v>
+      </c>
+      <c r="AZ8">
+        <v>-3.5134714960947702</v>
+      </c>
+      <c r="BA8">
+        <v>-3.5860395525120499</v>
+      </c>
+      <c r="BB8">
+        <v>-3.6576166761493401</v>
+      </c>
+      <c r="BC8">
+        <v>-3.7281985777047302</v>
+      </c>
+      <c r="BD8">
+        <v>-3.7977830504032402</v>
+      </c>
+      <c r="BE8">
+        <v>-3.86637014954368</v>
+      </c>
+      <c r="BF8">
+        <v>-3.9339623952909402</v>
+      </c>
+      <c r="BG8">
+        <v>-4.0005650025083899</v>
+      </c>
+      <c r="BH8">
+        <v>-4.0661861293903199</v>
+      </c>
+      <c r="BI8">
+        <v>-4.1308372811912104</v>
+      </c>
+      <c r="BJ8">
+        <v>-4.1945334234096103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>-4.5984186661961797</v>
+      </c>
+      <c r="N9">
+        <v>-9.2016310519960491</v>
+      </c>
+      <c r="O9">
+        <v>-13.8142345775746</v>
+      </c>
+      <c r="P9">
+        <v>-18.441180612419402</v>
+      </c>
+      <c r="Q9">
+        <v>-23.087235789831801</v>
+      </c>
+      <c r="R9">
+        <v>-27.757277415746799</v>
+      </c>
+      <c r="S9">
+        <v>-32.4562503488118</v>
+      </c>
+      <c r="T9">
+        <v>-37.189181383775001</v>
+      </c>
+      <c r="U9">
+        <v>-41.961194119480098</v>
+      </c>
+      <c r="V9">
+        <v>-46.777524403045398</v>
+      </c>
+      <c r="W9">
+        <v>-51.643536447781798</v>
+      </c>
+      <c r="X9">
+        <v>-56.564739729455297</v>
+      </c>
+      <c r="Y9">
+        <v>-61.546806773722302</v>
+      </c>
+      <c r="Z9">
+        <v>-66.595591957103693</v>
+      </c>
+      <c r="AA9">
+        <v>-71.717151454863696</v>
+      </c>
+      <c r="AB9">
+        <v>-76.917764481805406</v>
+      </c>
+      <c r="AC9">
+        <v>-82.203955986502095</v>
+      </c>
+      <c r="AD9">
+        <v>-87.582520976090606</v>
+      </c>
+      <c r="AE9">
+        <v>-93.060550667761603</v>
+      </c>
+      <c r="AF9">
+        <v>-98.645460684821302</v>
+      </c>
+      <c r="AG9">
+        <v>-104.345021540061</v>
+      </c>
+      <c r="AH9">
+        <v>-110.167391677634</v>
+      </c>
+      <c r="AI9">
+        <v>-116.121153377208</v>
+      </c>
+      <c r="AJ9">
+        <v>-122.21535186153</v>
+      </c>
+      <c r="AK9">
+        <v>-128.45953799134099</v>
+      </c>
+      <c r="AL9">
+        <v>-134.86381498083301</v>
+      </c>
+      <c r="AM9">
+        <v>-141.438889623405</v>
+      </c>
+      <c r="AN9">
+        <v>-148.196128582684</v>
+      </c>
+      <c r="AO9">
+        <v>-155.14762037895201</v>
+      </c>
+      <c r="AP9">
+        <v>-162.306243788008</v>
+      </c>
+      <c r="AQ9">
+        <v>-169.68574346999799</v>
+      </c>
+      <c r="AR9">
+        <v>-177.30081376220599</v>
+      </c>
+      <c r="AS9">
+        <v>-185.16719170506801</v>
+      </c>
+      <c r="AT9">
+        <v>-193.30176052780899</v>
+      </c>
+      <c r="AU9">
+        <v>-201.72266500323201</v>
+      </c>
+      <c r="AV9">
+        <v>-210.449440294618</v>
+      </c>
+      <c r="AW9">
+        <v>-219.50315616711501</v>
+      </c>
+      <c r="AX9">
+        <v>-228.90657872756299</v>
+      </c>
+      <c r="AY9">
+        <v>-238.68435219824201</v>
+      </c>
+      <c r="AZ9">
+        <v>-248.863203630307</v>
+      </c>
+      <c r="BA9">
+        <v>-259.47217393236298</v>
+      </c>
+      <c r="BB9">
+        <v>-270.54287914095801</v>
+      </c>
+      <c r="BC9">
+        <v>-282.10980650716499</v>
+      </c>
+      <c r="BD9">
+        <v>-294.21065073343999</v>
+      </c>
+      <c r="BE9">
+        <v>-306.88669658646597</v>
+      </c>
+      <c r="BF9">
+        <v>-320.18325515596598</v>
+      </c>
+      <c r="BG9">
+        <v>-334.15016224963898</v>
+      </c>
+      <c r="BH9">
+        <v>-348.84219368145</v>
+      </c>
+      <c r="BI9">
+        <v>-364.32032137800297</v>
+      </c>
+      <c r="BJ9">
+        <v>-380.65158917300403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>-1.80317795276642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>-230.585417330372</v>
+      </c>
+      <c r="U12" s="5"/>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>-5.5</v>
+      </c>
+      <c r="L14" s="6">
+        <v>-4.5058984309434898E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>-11</v>
+      </c>
+      <c r="L15" s="6">
+        <v>-9.2767715454101604E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>-16.5</v>
+      </c>
+      <c r="L16">
+        <v>-0.14330554008483901</v>
+      </c>
+    </row>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>-22</v>
+      </c>
+      <c r="L17">
+        <v>-0.19685834646225001</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>-27.5</v>
+      </c>
+      <c r="L18">
+        <v>-0.25361680984497098</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>-33</v>
+      </c>
+      <c r="L19">
+        <v>-0.31377401947975198</v>
+      </c>
+    </row>
+    <row r="20" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>-38.5</v>
+      </c>
+      <c r="L20">
+        <v>-0.37752240896224998</v>
+      </c>
+    </row>
+    <row r="21" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>-44</v>
+      </c>
+      <c r="L21">
+        <v>-0.44504997134208701</v>
+      </c>
+    </row>
+    <row r="22" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>-49.5</v>
+      </c>
+      <c r="L22">
+        <v>-0.516534864902496</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>-55</v>
+      </c>
+      <c r="L23">
+        <v>-0.59214061498642001</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>-60.5</v>
+      </c>
+      <c r="L24">
+        <v>-0.67200911045074496</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>-66</v>
+      </c>
+      <c r="L25">
+        <v>-0.75625300407409701</v>
+      </c>
+    </row>
+    <row r="26" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>-71.5</v>
+      </c>
+      <c r="L26">
+        <v>-0.84494900703430198</v>
+      </c>
+    </row>
+    <row r="27" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>-77</v>
+      </c>
+      <c r="L27">
+        <v>-0.93812954425811801</v>
+      </c>
+    </row>
+    <row r="28" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>-82.5</v>
+      </c>
+      <c r="L28">
+        <v>-1.0357756614685101</v>
+      </c>
+    </row>
+    <row r="29" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>-88</v>
+      </c>
+      <c r="L29">
+        <v>-1.13781118392944</v>
+      </c>
+    </row>
+    <row r="30" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>-93.5</v>
+      </c>
+      <c r="L30">
+        <v>-1.24409747123718</v>
+      </c>
+    </row>
+    <row r="31" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>-99</v>
+      </c>
+      <c r="L31">
+        <v>-1.35443198680878</v>
+      </c>
+    </row>
+    <row r="32" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>-104.5</v>
+      </c>
+      <c r="L32">
+        <v>-1.4685479402542101</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>-110</v>
+      </c>
+      <c r="L33">
+        <v>-1.5861185789108301</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>-115.5</v>
+      </c>
+      <c r="L34">
+        <v>-1.7067630290985101</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>-121</v>
+      </c>
+      <c r="L35">
+        <v>-1.8300553560257</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>-126.5</v>
+      </c>
+      <c r="L36">
+        <v>-1.9555364847183201</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>-132</v>
+      </c>
+      <c r="L37">
+        <v>-2.0827171802520801</v>
+      </c>
+    </row>
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>-137.5</v>
+      </c>
+      <c r="L38">
+        <v>-2.2111248970031698</v>
+      </c>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>-143</v>
+      </c>
+      <c r="L39">
+        <v>-2.3402688503265399</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>-148.5</v>
+      </c>
+      <c r="L40">
+        <v>-2.4696812629699698</v>
+      </c>
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>-154</v>
+      </c>
+      <c r="L41">
+        <v>-2.5989336967468302</v>
+      </c>
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>-159.5</v>
+      </c>
+      <c r="L42">
+        <v>-2.7275879383087198</v>
+      </c>
+    </row>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>-165</v>
+      </c>
+      <c r="L43">
+        <v>-2.85528635978699</v>
+      </c>
+    </row>
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>-170.5</v>
+      </c>
+      <c r="L44">
+        <v>-2.9816989898681601</v>
+      </c>
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>-176</v>
+      </c>
+      <c r="L45">
+        <v>-3.10653901100159</v>
+      </c>
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>-181.5</v>
+      </c>
+      <c r="L46">
+        <v>-3.2295622825622599</v>
+      </c>
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>-187</v>
+      </c>
+      <c r="L47">
+        <v>-3.3505654335021999</v>
+      </c>
+    </row>
+    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>-192.5</v>
+      </c>
+      <c r="L48">
+        <v>-3.4694161415100102</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>-198</v>
+      </c>
+      <c r="L49">
+        <v>-3.5859351158142099</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>-203.5</v>
+      </c>
+      <c r="L50">
+        <v>-3.7000465393066402</v>
+      </c>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>-209</v>
+      </c>
+      <c r="L51">
+        <v>-3.8116519451141402</v>
+      </c>
+    </row>
+    <row r="52" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>-214.5</v>
+      </c>
+      <c r="L52">
+        <v>-3.92076516151428</v>
+      </c>
+    </row>
+    <row r="53" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>-220</v>
+      </c>
+      <c r="L53">
+        <v>-4.0273532867431596</v>
+      </c>
+    </row>
+    <row r="54" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>-225.5</v>
+      </c>
+      <c r="L54">
+        <v>-4.1313781738281303</v>
+      </c>
+    </row>
+    <row r="55" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>-231</v>
+      </c>
+      <c r="L55">
+        <v>-4.2328920364379901</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1231,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F2443A-431B-4692-8FE1-7CACE58C740C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,23 +3861,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>10^(-7)</f>
-        <v>9.9999999999999995E-8</v>
+        <v>1E-4</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RazzR\OneDrive\Belgeler\analysis-engine-3d\Input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86CF452-AD10-4EFF-8F45-8E58279319EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A74BE4-D987-4577-8B1E-F350650908A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
     <sheet name="Supports" sheetId="2" r:id="rId2"/>
     <sheet name="Shell Elements" sheetId="3" r:id="rId3"/>
     <sheet name="Line Elements" sheetId="4" r:id="rId4"/>
-    <sheet name="Materials" sheetId="5" r:id="rId5"/>
-    <sheet name="Sections" sheetId="6" r:id="rId6"/>
-    <sheet name="Nodal Load" sheetId="7" r:id="rId7"/>
-    <sheet name="Arc Length Parameters" sheetId="8" r:id="rId8"/>
+    <sheet name="Nonlinear Line Elements" sheetId="9" r:id="rId5"/>
+    <sheet name="Materials" sheetId="5" r:id="rId6"/>
+    <sheet name="Sections" sheetId="6" r:id="rId7"/>
+    <sheet name="Nodal Load" sheetId="7" r:id="rId8"/>
+    <sheet name="Arc Length Parameters" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Node ID</t>
   </si>
@@ -167,9 +168,6 @@
   </si>
   <si>
     <t>Arc Length</t>
-  </si>
-  <si>
-    <t>Strain Type</t>
   </si>
 </sst>
 </file>
@@ -215,20 +213,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2083,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB60D2-9CEA-4AF6-BBFE-14189615886A}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,12 +2128,26 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -2144,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,6 +2245,32 @@
         <v>1</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -2303,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06747EAA-2B3E-4129-BECE-62A3CA8D8DBC}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2339,32 +2379,144 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4302C3F1-A01D-4530-9727-3F57C0B6FF8F}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:T3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03126560-76E5-4179-B42F-5ABF06329966}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -2406,7 +2558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDD292-B116-45BF-A498-8DFDE4EC10A0}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2461,12 +2613,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AED2E2A-F152-4D08-9EBD-35E68852C800}">
   <dimension ref="A1:BJ55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56:L63"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3469,7 +3621,7 @@
       <c r="N12">
         <v>-230.585417330372</v>
       </c>
-      <c r="U12" s="5"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="K13">
@@ -3483,7 +3635,7 @@
       <c r="K14">
         <v>-5.5</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <v>-4.5058984309434898E-2</v>
       </c>
     </row>
@@ -3491,7 +3643,7 @@
       <c r="K15">
         <v>-11</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <v>-9.2767715454101604E-2</v>
       </c>
     </row>
@@ -3821,17 +3973,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F2443A-431B-4692-8FE1-7CACE58C740C}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -3855,9 +4007,7 @@
       <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>42</v>
-      </c>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -3867,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -3875,9 +4025,7 @@
       <c r="E2">
         <v>70</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
+      <c r="F2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A74BE4-D987-4577-8B1E-F350650908A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC88934-0DC3-4EB1-8D68-588F8F926018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11385" firstSheet="4" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -2083,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB60D2-9CEA-4AF6-BBFE-14189615886A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,26 +2128,12 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -2158,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,32 +2231,6 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -2389,7 +2349,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:T3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,24 +2438,6 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2521,7 +2463,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2547,7 +2489,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2563,7 +2505,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2596,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2605,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>8.8880000000000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2560,7 @@
   <dimension ref="A1:BJ55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-0.01</v>
+        <v>-1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3978,7 +3920,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="F2" s="7"/>
     </row>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC88934-0DC3-4EB1-8D68-588F8F926018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ABF2C2-A5F3-44E5-BD94-273337717E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
@@ -2083,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB60D2-9CEA-4AF6-BBFE-14189615886A}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2128,12 +2128,26 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
+        <v>1.2</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="D3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -2144,10 +2158,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2205,7 +2219,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2231,6 +2245,32 @@
         <v>1</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -2349,7 +2389,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,6 +2478,24 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -3920,7 +3978,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3953,19 +4011,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>55</v>
+        <v>500</v>
       </c>
       <c r="F2" s="7"/>
     </row>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0ABF2C2-A5F3-44E5-BD94-273337717E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447A97B-44A1-4F3A-B1B5-89BBBF2F709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:BJ55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-1</v>
+        <v>-700</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3978,7 +3978,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="F2" s="7"/>
     </row>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447A97B-44A1-4F3A-B1B5-89BBBF2F709C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C3E6E6-6989-4D0A-BD6D-3C90CEAEBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -2083,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CB60D2-9CEA-4AF6-BBFE-14189615886A}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,23 +2131,9 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
         <v>0</v>
       </c>
     </row>
@@ -2158,10 +2144,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1968B7-5424-4C36-8505-5F3C4CDAA493}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2219,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -2245,32 +2231,6 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
         <v>0</v>
       </c>
     </row>
@@ -2389,7 +2349,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,24 +2438,6 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2563,7 +2505,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>-700</v>
+        <v>-1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3978,7 +3920,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4017,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="D2">
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>5000</v>
+        <v>700</v>
       </c>
       <c r="F2" s="7"/>
     </row>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C3E6E6-6989-4D0A-BD6D-3C90CEAEBA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B77B2C-A66E-45F1-8791-5E14910150CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
   <sheets>
     <sheet name="Coordinates" sheetId="1" r:id="rId1"/>
@@ -2147,7 +2147,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2216,7 +2216,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3920,7 +3920,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3965,7 +3965,7 @@
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="F2" s="7"/>
     </row>

--- a/Input/Inputs.xlsx
+++ b/Input/Inputs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\analysis-engine-3d\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267D904C-E42F-497D-91EB-C0937270964A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DCE46B-DEC4-42EB-AE99-9F022A28A5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{DB72CDF5-9B03-4981-93E0-F1BDE5E8516D}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>Node ID</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Icr</t>
   </si>
   <si>
-    <t>Mcr</t>
-  </si>
-  <si>
     <t>curve1</t>
   </si>
   <si>
@@ -170,6 +167,12 @@
   </si>
   <si>
     <t>Moment Curvature Curve Sheet Name</t>
+  </si>
+  <si>
+    <t>Mcr pos</t>
+  </si>
+  <si>
+    <t>Mcr neg</t>
   </si>
 </sst>
 </file>
@@ -1999,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDD292-B116-45BF-A498-8DFDE4EC10A0}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2012,10 +2015,11 @@
     <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="35.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2035,13 +2039,16 @@
         <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2063,8 +2070,11 @@
       <c r="G2">
         <v>5.1093082810798487</v>
       </c>
-      <c r="H2" t="s">
-        <v>39</v>
+      <c r="H2">
+        <v>5.1093082810798487</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2646,10 +2656,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
